--- a/bodyDataBase.xlsx
+++ b/bodyDataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t xml:space="preserve">
 window._sharedData = {"activity_counts":null,"config":{"csrf_token":"vgHMliGwF9FeEcv33pPkR4Stb0twHC6D","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":541},"followed_by_viewer":false,"follows":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":541},"followed_by_viewer":false,"edge_follow":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"client_gql":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"aysf":{"g":"","p":{}},"notif":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout_upsell":{"g":"","p":{}},"stories":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"su_universe":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"us_li":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"video":{"g":"","p":{}},"appsell":{"g":"","p":{}},"collections":{"g":"","p":{}},"msisdn":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"save":{"g":"","p":{}},"stale":{"g":"","p":{}},"reg":{"g":"control_inline_2_01_16","p":{"has_inline_labels":"false"}},"reg_vp":{"g":"test_group_1","p":{"hide_value_prop":"true"}},"prof_pic_upsell":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"reporting":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"embeds":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"fs":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"connections":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"k05odc1FHtEW7COQpskzNQ==","zero_data":{},"is_canary":true,"rollout_hash":"5382794631a5","probably_has_app":false,"show_app_install":true};
@@ -810,6 +810,89 @@
 fbq('init', '1425767024389221');
 fbq('track', 'PageView');
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+								Serdar YILMAZ								
+								Bizimkisi Bir “Bug” Hikayesi...							
+ Serdivan/Sakarya						
+ iletisim@srdrylmz.com							
+ Serdar Yılmaz  Ana Sayfa						
+Son Yazılar
+							Tüm Yazıları Görün ››
+Kas.
+29
+2017
+									Biyoteknolojiye Hazır mıyız?								
+Büyük bir merakla takip ettiğim biyoteknoloji alanındaki gelişmeleri bu içerikte toparlayıp; biyoteknolojinin ne olduğuna, bu alanda yapılan çalışmalara, yatırımlara ve gelecekte karşılaşabileceğimiz olası senaryolara değinmeye çalışacağım. Devamını Okumak İçin Tıklayınız…
+Haz.
+03
+2017
+									Yaşam İçin Anlam Taşıyan Üç Şey								
+Bu yazıda, Linux’un yaratıcısı Linus Torvalds’ın bilgisayar dünyasına girişini konu alan “Yalnızca Eğlenmek İçin” isimli kitaptan bir bölüme yer vereceğim. Kitabı yaklaşık 1 – 1.5 yıl önce okumuştum, bugün kitaplığı düzenlerken görünce altını çizdiğim kısımlara tekrar göz gezdirdim ve bir kısmını blog da paylaşmaya karar verdim. Linus Torvalds tarafından kaleme alınan ve onun fikirlerini, düşüncelerini, bakış açısını içeren bu kitabı okumanızı tavsiye ederim.  Devamını Okumak İçin Tıklayınız…
+Mar.
+05
+2017
+									Yaşamınızdaki Öncelikler Nedir ?								
+Bu yazıda Beyaz Yaka Kitap Kulübünün şubat ayı abonelerine göndermiş olduğu 4 kitaptan biri olan “Konuşmayı Kes Harekete Geç” isimli kitaptan bir alıntıya yer vereceğim. Her ne kadar kitabı sıkıcı bulup, sonlara doğru göz ucuyla okumuş olsam da kitabın ilk sayfasında yer alan öykü ilgimi çekti. Kitabı sıkıcı bulmamın nedeni bu tarz içeriklerin artık bende belli bir duygunluğa ulaşmasından kaynaklanıyor olabilir. Çünkü anlatılmak istenenler bir noktadan sonra sıradanlaşmaya başlayıp, tekrara düşüyor.  Devamını Okumak İçin Tıklayınız…
+Oca.
+19
+2017
+									C# – Koleksiyonlar								
+Nesne yönelimli programlama ile birlikte sınıf(class) kavramıyla tanıştık ve sıkça kullandığımız metotları tekrar tekrar yazmak yerine, bir sınıf içerisinde, bir defaya mahsus yazarak kod kalabalığının önüne geçmiş olduk. Bu programcı olarak bizlerin, kod karmaşıklığını ve kalabalığını azaltmaya yönelik olarak kendimizce almış olduğumuz bir önlem. Kullanmış olduğumuz platformda, programcılar tarafından sıkça kullanılan veri yapılarını hazır bir şekilde sunarak, benzeri bir kolaylık sağlamakta. Devamını Okumak İçin Tıklayınız…
+Oca.
+12
+2017
+									Kitap: Satranç – Stefan Zweig								
+Kitaptan bahsetmeye başlamadan önce Türkiye İş Bankası Kültür Yayınları hakkında kısaca bilgi vermek istiyorum. Türkiye İş Bankası Kültür Yayınları dünya klasiklerini dilimize kazandırmak amacıyla kurulan ülkemizdeki en köklü yayın evlerinden biri. Yayın evi hakkında özellikle değinmek istediğim nokta, kitapları bir dizi haline getirmiş olması. Stefan Zweig kaleme aldığı Satranç isimli kitapta, yayın evi tarafından oluşturulan Modern Klasikler Dizisi içerisinde yer almakta.  Devamını Okumak İçin Tıklayınız…
+Eyl.
+24
+2016
+									Kitap: Dijital Kale – Dan Brown								
+Şuana kadar Dan Brown’un Robert Langdon serisinden Melekler ve Şeytanlar, Da Vinci Şifresi ve Cehennem isimli kitaplarını okuyabildim. Seri içerisinde okumadığım sadece Kayıp Sembol kaldı. Aslında Kayıp Sembole başlangıç yapmıştım ancak vizeler başlayınca uzun bir süre okuyamadım. Bu yüzden kaldığım yerden devam etmek yerine, kitabı bir köşeye koyup farklı bir kitaba başlamayı tercih ettim. Dan Brown’un kaleme aldığı romanları okuyan arkadaşlar bu durumu anlayacaktır. Genellikle kitapları ortalayıncaya kadar olaylar oldukça durgun bir seyir izlemekte. Sanırım kitabı yeniden okumama nedenimde bu; okuduğum kısımları tekrar okumak zorunda kalmam ve bu kısımların durgun ilerlemesi. Devamını Okumak İçin Tıklayınız…
+Ana Sayfa
+Blog
+Genel
+Kodlama
+Teknoloji
+Alıntılar
+Faydalı Siteler
+İnternet
+Kitap &amp; Dergi
+Etkinlikler
+Hakkımda
+Multimedya
+				© Copyright 2013. All Rights Reserved.			
+				Serdar YILMAZ Kişisel Web Günlüğü			
+    (function (d, w, c) {
+        (w[c] = w[c] || []).push(function() {
+            try {
+                w.yaCounter35156325 = new Ya.Metrika({
+                    id:35156325,
+                    clickmap:true,
+                    trackLinks:true,
+                    accurateTrackBounce:true,
+                    webvisor:true
+                });
+            } catch(e) { }
+        });
+        var n = d.getElementsByTagName("script")[0],
+            s = d.createElement("script"),
+            f = function () { n.parentNode.insertBefore(s, n); };
+        s.type = "text/javascript";
+        s.async = true;
+        s.src = "https://mc.yandex.ru/metrika/watch.js";
+        if (w.opera == "[object Opera]") {
+            d.addEventListener("DOMContentLoaded", f, false);
+        } else { f(); }
+    })(document, window, "yandex_metrika_callbacks");
+/* &lt;![CDATA[ */
+var JQLBSettings = {"fitToScreen":"1","resizeSpeed":"400","displayDownloadLink":"0","navbarOnTop":"0","loopImages":"","resizeCenter":"","marginSize":"0","linkTarget":"","help":"","prevLinkTitle":"previous image","nextLinkTitle":"next image","prevLinkText":"\u00ab Previous","nextLinkText":"Next \u00bb","closeTitle":"close image gallery","image":"Image ","of":" of ","download":"Download","jqlb_overlay_opacity":"80","jqlb_overlay_color":"#000000","jqlb_overlay_close":"1","jqlb_border_width":"10","jqlb_border_color":"#ffffff","jqlb_border_radius":"0","jqlb_image_info_background_transparency":"100","jqlb_image_info_bg_color":"#ffffff","jqlb_image_info_text_color":"#000000","jqlb_image_info_text_fontsize":"10","jqlb_show_text_for_image":"1","jqlb_next_image_title":"next image","jqlb_previous_image_title":"previous image","jqlb_next_button_image":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/next.gif","jqlb_previous_button_image":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/prev.gif","jqlb_maximum_width":"","jqlb_maximum_height":"","jqlb_show_close_button":"1","jqlb_close_image_title":"close image gallery","jqlb_close_image_max_heght":"22","jqlb_image_for_close_lightbox":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/closelabel.gif","jqlb_keyboard_navigation":"1","jqlb_popup_size_fix":"0"};
+/* ]]&gt; */
+</t>
+  </si>
+  <si>
+    <t>http://www.srdrylmz.com/</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
@@ -1780,6 +1863,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="2" t="n">
+        <v>43157.5274284332</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/bodyDataBase.xlsx
+++ b/bodyDataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t xml:space="preserve">
 window._sharedData = {"activity_counts":null,"config":{"csrf_token":"vgHMliGwF9FeEcv33pPkR4Stb0twHC6D","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":541},"followed_by_viewer":false,"follows":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":541},"followed_by_viewer":false,"edge_follow":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"client_gql":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"aysf":{"g":"","p":{}},"notif":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout_upsell":{"g":"","p":{}},"stories":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"su_universe":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"us_li":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"video":{"g":"","p":{}},"appsell":{"g":"","p":{}},"collections":{"g":"","p":{}},"msisdn":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"save":{"g":"","p":{}},"stale":{"g":"","p":{}},"reg":{"g":"control_inline_2_01_16","p":{"has_inline_labels":"false"}},"reg_vp":{"g":"test_group_1","p":{"hide_value_prop":"true"}},"prof_pic_upsell":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"reporting":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"embeds":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"fs":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"connections":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"k05odc1FHtEW7COQpskzNQ==","zero_data":{},"is_canary":true,"rollout_hash":"5382794631a5","probably_has_app":false,"show_app_install":true};
@@ -893,6 +893,58 @@
   </si>
   <si>
     <t>http://www.srdrylmz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+window._sharedData = {"activity_counts":null,"config":{"csrf_token":"QGh4jEgw3mKVRnpPPUJgUvipRa5wpAom","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":545},"followed_by_viewer":false,"follows":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQAmcvNgNQdXrX-yWHJTeZehxjx_2bY_bzfGXy_ImMgrcSPJf06SGb8eTYQNBcB94hBQ9rANqyxHR22a4TdP_olRs5dtqun5jdHj0B5-eyQ-rA"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":545},"followed_by_viewer":false,"edge_follow":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQAmcvNgNQdXrX-yWHJTeZehxjx_2bY_bzfGXy_ImMgrcSPJf06SGb8eTYQNBcB94hBQ9rANqyxHR22a4TdP_olRs5dtqun5jdHj0B5-eyQ-rA"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"834cfd9a":{"g":"","p":{}},"client_gql":{"g":"","p":{}},"b57bc793":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"f6b232bb":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"a47f578c":{"g":"","p":{}},"aysf":{"g":"","p":{}},"04eaabb0":{"g":"","p":{}},"notif":{"g":"","p":{}},"25b356ab":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"e2cffd31":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"8a5c80fd":{"g":"","p":{}},"loggedout_upsell":{"g":"","p":{}},"bd6730a0":{"g":"","p":{}},"stories":{"g":"","p":{}},"76a86dfb":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"df78c718":{"g":"","p":{}},"su_universe":{"g":"","p":{}},"11bbbc09":{"g":"","p":{}},"us_li":{"g":"","p":{}},"d16c94c5":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"af886adf":{"g":"","p":{}},"video":{"g":"","p":{}},"bb21ed8b":{"g":"","p":{}},"appsell":{"g":"","p":{}},"78e2146b":{"g":"","p":{}},"collections":{"g":"","p":{}},"47d6a3b3":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"msisdn":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"4ae576c1":{"g":"","p":{}},"save":{"g":"","p":{}},"9dcf4750":{"g":"","p":{}},"stale":{"g":"","p":{}},"edc7f6d2":{"g":"","p":{}},"reg":{"g":"","p":{}},"47ce4b24":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"reg_vp":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"1df00ebb":{"g":"","p":{}},"prof_pic_upsell":{"g":"","p":{}},"004e9939":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"fbce4ce4":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"b239bf2d":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"6bf718a8":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"8365e413":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"94df4b40":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"4844df36":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"f4651ae9":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"47d2aebf":{"g":"","p":{}},"reporting":{"g":"","p":{}},"cb1ff25c":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"0d3bf783":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"ea55ef64":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"28cc279b":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"3c0bc5c7":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"d5dde92a":{"g":"","p":{}},"embeds":{"g":"","p":{}},"ca7fa6dd":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"608b2c6c":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"2ea1c751":{"g":"","p":{}},"fs":{"g":"","p":{}},"b212f68e":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"d8c67ea6":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"e878cb91":{"g":"","p":{}},"connections":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"nhuYXH4EZG7A3DVB66+4iA==","zero_data":{},"rollout_hash":"3156f3856bb5","probably_has_app":false,"show_app_install":true};
+!function(e){function a(n){if(o[n])return o[n].exports;var t=o[n]={i:n,l:!1,exports:{}};return e[n].call(t.exports,t,t.exports,a),t.l=!0,t.exports}var n=window.webpackJsonp;window.webpackJsonp=function(o,r,i){for(var c,d,s,g=0,f=[];g&lt;o.length;g++)d=o[g],t[d]&amp;&amp;f.push(t[d][0]),t[d]=0;for(c in r)Object.prototype.hasOwnProperty.call(r,c)&amp;&amp;(e[c]=r[c]);for(n&amp;&amp;n(o,r,i);f.length;)f.shift()();if(i)for(g=0;g&lt;i.length;g++)s=a(a.s=i[g]);return s};var o={},t={49:0};a.e=function(e){function n(){c.onerror=c.onload=null,clearTimeout(d);var a=t[e];0!==a&amp;&amp;(a&amp;&amp;a[1](new Error("Loading chunk "+e+" failed.")),t[e]=void 0)}var o=t[e];if(0===o)return new Promise(function(e){e()});if(o)return o[2];var r=new Promise(function(a,n){o=t[e]=[a,n]});o[2]=r;var i=document.getElementsByTagName("head")[0],c=document.createElement("script");c.type="text/javascript",c.charset="utf-8",c.async=!0,c.timeout=12e4,c.crossOrigin="anonymous",a.nc&amp;&amp;c.setAttribute("nonce",a.nc),c.src=a.p+""+({0:"SettingsModules",1:"ProfilePageContainer",2:"LikedByListContainer",3:"FollowListContainer",4:"CreationModules",5:"LocationPageContainer",6:"DiscoverMediaPageContainer",7:"DiscoverEmbedsPageContainer",8:"UserCollectionMediaPageContainer",9:"TagPageContainer",10:"DebugInfoNub",11:"FeedPageContainer",12:"LandingPage",13:"PostPageContainer",14:"LoginAndSignupPage",15:"ResetPasswordPageContainer",16:"UserCollectionsPageContainer",17:"MobileStoriesPage",18:"DesktopStoriesPage",19:"DiscoverPeoplePageContainer",20:"MultiStepSignupPage",21:"ContactHistoryPage",22:"LocationsDirectoryLandingPage",23:"LocationsDirectoryCountryPage",24:"LocationsDirectoryCityPage",25:"EmailConfirmationPage",26:"SuggestedDirectoryLandingPage",27:"ProfilesDirectoryLandingPage",28:"DirectoryPage",29:"HttpErrorPage",30:"ActivityFeedPage",31:"CameraPage",32:"StoryCreationPage",33:"NewUserInterstitial",34:"FBSignupPage",35:"ContactInvitesOptOutPage",36:"Report",37:"Copyright",38:"SupportInfo",39:"Community",40:"GenericSurvey",41:"Challenge",42:"Consumer",43:"EmailSnoozePage",44:"EmailUnsubscribePage",45:"ConfirmFollowDialog",46:"NotificationLandingPage"}[e]||e)+".js/"+{0:"34ea21d19385",1:"88a1a465402e",2:"2342482c75ef",3:"b9dcacbeebc8",4:"c1984d97bc70",5:"288026a6de18",6:"109f6d734863",7:"9e82b7c6ea0b",8:"c9e9bb9efe11",9:"92c450f75f4b",10:"1197ccc46117",11:"3dfd8fa6cfd8",12:"12285bb0b069",13:"27c91aa59fdd",14:"d0a40e755e1e",15:"dd787adc92eb",16:"a4a16427cde3",17:"5800bb273aaa",18:"0703aab3b464",19:"90a8b57ae564",20:"41fa98f6895a",21:"5e044281585c",22:"6858feeb0a66",23:"d1c754295774",24:"7ea767ae76ee",25:"923742376262",26:"d5d5986f3842",27:"1352aea86cc0",28:"bd34aef749f3",29:"762c22ea65a3",30:"d366074da593",31:"ac0ef7598973",32:"fec058817877",33:"e037bebe8036",34:"6c4311554b3b",35:"95a47539d8b2",36:"494c93e40323",37:"5f29e1fddd91",38:"d9582b7fd06a",39:"3c182b8237da",40:"66ae1b2c8d3e",41:"ff6fd0e21ca6",42:"3034c2271934",43:"ba7e7b31317a",44:"a77601a12715",45:"b4a125eea937",46:"30463ebe552b"}[e]+".js";var d=setTimeout(n,12e4);return c.onerror=c.onload=n,i.appendChild(c),r},a.m=e,a.c=o,a.d=function(e,n,o){a.o(e,n)||Object.defineProperty(e,n,{configurable:!1,enumerable:!0,get:o})},a.n=function(e){var n=e&amp;&amp;e.__esModule?function(){return e.default}:function(){return e};return a.d(n,"a",n),n},a.o=function(e,a){return Object.prototype.hasOwnProperty.call(e,a)},a.p="/static/bundles/",a.oe=function(e){throw console.error(e),e}}([]);
+!function(f,b,e,v,n,t,s){if(f.fbq)return;n=f.fbq=function(){n.callMethod?
+n.callMethod.apply(n,arguments):n.queue.push(arguments)};if(!f._fbq)f._fbq=n;
+n.push=n;n.loaded=!0;n.version='2.0';n.queue=[];t=b.createElement(e);t.async=!0;
+t.src=v;s=b.getElementsByTagName(e)[0];s.parentNode.insertBefore(t,s)}(window,
+document,'script','//connect.facebook.net/en_US/fbevents.js');
+fbq('init', '1425767024389221');
+fbq('track', 'PageView');
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+window._sharedData = {"activity_counts":null,"config":{"csrf_token":"RkJe3RQ5hN0ZRYfZQvLCuo3hJs3DgtBj","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":545},"followed_by_viewer":false,"follows":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQB-iZdIyT51bGb5fUXf78xE6PPZmPqvVYEnuQGhy8Gmx1TpLJUISBuGf366OIOrOtEYsa2z0_xoe22IiTCO35xp_UB1iCjcBMSPKa-JzeUM5Q"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":545},"followed_by_viewer":false,"edge_follow":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQB-iZdIyT51bGb5fUXf78xE6PPZmPqvVYEnuQGhy8Gmx1TpLJUISBuGf366OIOrOtEYsa2z0_xoe22IiTCO35xp_UB1iCjcBMSPKa-JzeUM5Q"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"834cfd9a":{"g":"","p":{}},"client_gql":{"g":"","p":{}},"b57bc793":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"f6b232bb":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"a47f578c":{"g":"","p":{}},"aysf":{"g":"","p":{}},"04eaabb0":{"g":"","p":{}},"notif":{"g":"","p":{}},"25b356ab":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"e2cffd31":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"8a5c80fd":{"g":"","p":{}},"loggedout_upsell":{"g":"","p":{}},"bd6730a0":{"g":"","p":{}},"stories":{"g":"","p":{}},"76a86dfb":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"df78c718":{"g":"","p":{}},"su_universe":{"g":"","p":{}},"11bbbc09":{"g":"","p":{}},"us_li":{"g":"","p":{}},"d16c94c5":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"af886adf":{"g":"","p":{}},"video":{"g":"","p":{}},"bb21ed8b":{"g":"","p":{}},"appsell":{"g":"","p":{}},"78e2146b":{"g":"","p":{}},"collections":{"g":"","p":{}},"47d6a3b3":{"g":"control_prefill_2_15","p":{"has_msisdn_prefill":"false"}},"msisdn":{"g":"control_prefill_2_15","p":{"has_msisdn_prefill":"false"}},"4ae576c1":{"g":"","p":{}},"save":{"g":"","p":{}},"9dcf4750":{"g":"","p":{}},"stale":{"g":"","p":{}},"edc7f6d2":{"g":"new_reg_with_appsells_01_10","p":{"has_new_landing_appsells":"true","has_new_landing_page":"true"}},"reg":{"g":"new_reg_with_appsells_01_10","p":{"has_new_landing_appsells":"true","has_new_landing_page":"true"}},"47ce4b24":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"reg_vp":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"1df00ebb":{"g":"","p":{}},"prof_pic_upsell":{"g":"","p":{}},"004e9939":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"fbce4ce4":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"b239bf2d":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"6bf718a8":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"8365e413":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"94df4b40":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"4844df36":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"f4651ae9":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"47d2aebf":{"g":"","p":{}},"reporting":{"g":"","p":{}},"cb1ff25c":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"0d3bf783":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"ea55ef64":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"28cc279b":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"3c0bc5c7":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"d5dde92a":{"g":"","p":{}},"embeds":{"g":"","p":{}},"ca7fa6dd":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"608b2c6c":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"2ea1c751":{"g":"","p":{}},"fs":{"g":"","p":{}},"b212f68e":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"d8c67ea6":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"e878cb91":{"g":"","p":{}},"connections":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"NE+qMqVAxdlbi+xNYhAMCw==","zero_data":{},"rollout_hash":"3156f3856bb5","probably_has_app":false,"show_app_install":true};
+!function(e){function a(n){if(o[n])return o[n].exports;var t=o[n]={i:n,l:!1,exports:{}};return e[n].call(t.exports,t,t.exports,a),t.l=!0,t.exports}var n=window.webpackJsonp;window.webpackJsonp=function(o,r,i){for(var c,d,s,g=0,f=[];g&lt;o.length;g++)d=o[g],t[d]&amp;&amp;f.push(t[d][0]),t[d]=0;for(c in r)Object.prototype.hasOwnProperty.call(r,c)&amp;&amp;(e[c]=r[c]);for(n&amp;&amp;n(o,r,i);f.length;)f.shift()();if(i)for(g=0;g&lt;i.length;g++)s=a(a.s=i[g]);return s};var o={},t={49:0};a.e=function(e){function n(){c.onerror=c.onload=null,clearTimeout(d);var a=t[e];0!==a&amp;&amp;(a&amp;&amp;a[1](new Error("Loading chunk "+e+" failed.")),t[e]=void 0)}var o=t[e];if(0===o)return new Promise(function(e){e()});if(o)return o[2];var r=new Promise(function(a,n){o=t[e]=[a,n]});o[2]=r;var i=document.getElementsByTagName("head")[0],c=document.createElement("script");c.type="text/javascript",c.charset="utf-8",c.async=!0,c.timeout=12e4,c.crossOrigin="anonymous",a.nc&amp;&amp;c.setAttribute("nonce",a.nc),c.src=a.p+""+({0:"SettingsModules",1:"ProfilePageContainer",2:"LikedByListContainer",3:"FollowListContainer",4:"CreationModules",5:"LocationPageContainer",6:"DiscoverMediaPageContainer",7:"DiscoverEmbedsPageContainer",8:"UserCollectionMediaPageContainer",9:"TagPageContainer",10:"DebugInfoNub",11:"FeedPageContainer",12:"LandingPage",13:"PostPageContainer",14:"LoginAndSignupPage",15:"ResetPasswordPageContainer",16:"UserCollectionsPageContainer",17:"MobileStoriesPage",18:"DesktopStoriesPage",19:"DiscoverPeoplePageContainer",20:"MultiStepSignupPage",21:"ContactHistoryPage",22:"LocationsDirectoryLandingPage",23:"LocationsDirectoryCountryPage",24:"LocationsDirectoryCityPage",25:"EmailConfirmationPage",26:"SuggestedDirectoryLandingPage",27:"ProfilesDirectoryLandingPage",28:"DirectoryPage",29:"HttpErrorPage",30:"ActivityFeedPage",31:"CameraPage",32:"StoryCreationPage",33:"NewUserInterstitial",34:"FBSignupPage",35:"ContactInvitesOptOutPage",36:"Report",37:"Copyright",38:"SupportInfo",39:"Community",40:"GenericSurvey",41:"Challenge",42:"Consumer",43:"EmailSnoozePage",44:"EmailUnsubscribePage",45:"ConfirmFollowDialog",46:"NotificationLandingPage"}[e]||e)+".js/"+{0:"34ea21d19385",1:"88a1a465402e",2:"2342482c75ef",3:"b9dcacbeebc8",4:"c1984d97bc70",5:"288026a6de18",6:"109f6d734863",7:"9e82b7c6ea0b",8:"c9e9bb9efe11",9:"92c450f75f4b",10:"1197ccc46117",11:"3dfd8fa6cfd8",12:"12285bb0b069",13:"27c91aa59fdd",14:"d0a40e755e1e",15:"dd787adc92eb",16:"a4a16427cde3",17:"5800bb273aaa",18:"0703aab3b464",19:"90a8b57ae564",20:"41fa98f6895a",21:"5e044281585c",22:"6858feeb0a66",23:"d1c754295774",24:"7ea767ae76ee",25:"923742376262",26:"d5d5986f3842",27:"1352aea86cc0",28:"bd34aef749f3",29:"762c22ea65a3",30:"d366074da593",31:"ac0ef7598973",32:"fec058817877",33:"e037bebe8036",34:"6c4311554b3b",35:"95a47539d8b2",36:"494c93e40323",37:"5f29e1fddd91",38:"d9582b7fd06a",39:"3c182b8237da",40:"66ae1b2c8d3e",41:"ff6fd0e21ca6",42:"3034c2271934",43:"ba7e7b31317a",44:"a77601a12715",45:"b4a125eea937",46:"30463ebe552b"}[e]+".js";var d=setTimeout(n,12e4);return c.onerror=c.onload=n,i.appendChild(c),r},a.m=e,a.c=o,a.d=function(e,n,o){a.o(e,n)||Object.defineProperty(e,n,{configurable:!1,enumerable:!0,get:o})},a.n=function(e){var n=e&amp;&amp;e.__esModule?function(){return e.default}:function(){return e};return a.d(n,"a",n),n},a.o=function(e,a){return Object.prototype.hasOwnProperty.call(e,a)},a.p="/static/bundles/",a.oe=function(e){throw console.error(e),e}}([]);
+!function(f,b,e,v,n,t,s){if(f.fbq)return;n=f.fbq=function(){n.callMethod?
+n.callMethod.apply(n,arguments):n.queue.push(arguments)};if(!f._fbq)f._fbq=n;
+n.push=n;n.loaded=!0;n.version='2.0';n.queue=[];t=b.createElement(e);t.async=!0;
+t.src=v;s=b.getElementsByTagName(e)[0];s.parentNode.insertBefore(t,s)}(window,
+document,'script','//connect.facebook.net/en_US/fbevents.js');
+fbq('init', '1425767024389221');
+fbq('track', 'PageView');
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+window._sharedData = {"activity_counts":null,"config":{"csrf_token":"AayIhlcxLxmekeLljc9riQwbyKrqS5Sc","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":547},"followed_by_viewer":false,"follows":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQCKUAYH0Y-YVKG7qkdKkZli1t29Pk_ArpM8O7XkeYq7GguPUCNvwOW9m4kshsgSTeCQXrdOyCKZTrXbtiypKrAERrasNJ6jEB1OWx8fLQe45A"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":547},"followed_by_viewer":false,"edge_follow":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQCKUAYH0Y-YVKG7qkdKkZli1t29Pk_ArpM8O7XkeYq7GguPUCNvwOW9m4kshsgSTeCQXrdOyCKZTrXbtiypKrAERrasNJ6jEB1OWx8fLQe45A"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"834cfd9a":{"g":"","p":{}},"client_gql":{"g":"","p":{}},"b57bc793":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"f6b232bb":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"a47f578c":{"g":"","p":{}},"aysf":{"g":"","p":{}},"04eaabb0":{"g":"","p":{}},"notif":{"g":"","p":{}},"25b356ab":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"e2cffd31":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"8a5c80fd":{"g":"","p":{}},"loggedout_upsell":{"g":"","p":{}},"bd6730a0":{"g":"","p":{}},"stories":{"g":"","p":{}},"76a86dfb":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"df78c718":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"su_universe":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"11bbbc09":{"g":"","p":{}},"us_li":{"g":"","p":{}},"d16c94c5":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"af886adf":{"g":"","p":{}},"video":{"g":"","p":{}},"bb21ed8b":{"g":"","p":{}},"appsell":{"g":"","p":{}},"78e2146b":{"g":"","p":{}},"collections":{"g":"","p":{}},"47d6a3b3":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"msisdn":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"4ae576c1":{"g":"","p":{}},"save":{"g":"","p":{}},"9dcf4750":{"g":"","p":{}},"stale":{"g":"","p":{}},"edc7f6d2":{"g":"","p":{}},"reg":{"g":"","p":{}},"47ce4b24":{"g":"","p":{}},"reg_vp":{"g":"","p":{}},"1df00ebb":{"g":"","p":{}},"prof_pic_upsell":{"g":"","p":{}},"004e9939":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"fbce4ce4":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"b239bf2d":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"6bf718a8":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"8365e413":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"94df4b40":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"4844df36":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"f4651ae9":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"47d2aebf":{"g":"","p":{}},"reporting":{"g":"","p":{}},"cb1ff25c":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"0d3bf783":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"ea55ef64":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"28cc279b":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"3c0bc5c7":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"d5dde92a":{"g":"","p":{}},"embeds":{"g":"","p":{}},"ca7fa6dd":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"608b2c6c":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"2ea1c751":{"g":"","p":{}},"fs":{"g":"","p":{}},"b212f68e":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"d8c67ea6":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"e878cb91":{"g":"","p":{}},"connections":{"g":"","p":{}},"0370381b":{"g":"","p":{}},"notif_banner":{"g":"","p":{}},"3b5f1021":{"g":"","p":{}},"private_lo":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"u+RSpoKbgX2Vk7bq4Ww0Vw==","zero_data":{},"rollout_hash":"3156f3856bb5","probably_has_app":false,"show_app_install":true};
+!function(e){function a(n){if(o[n])return o[n].exports;var t=o[n]={i:n,l:!1,exports:{}};return e[n].call(t.exports,t,t.exports,a),t.l=!0,t.exports}var n=window.webpackJsonp;window.webpackJsonp=function(o,r,i){for(var c,d,s,g=0,f=[];g&lt;o.length;g++)d=o[g],t[d]&amp;&amp;f.push(t[d][0]),t[d]=0;for(c in r)Object.prototype.hasOwnProperty.call(r,c)&amp;&amp;(e[c]=r[c]);for(n&amp;&amp;n(o,r,i);f.length;)f.shift()();if(i)for(g=0;g&lt;i.length;g++)s=a(a.s=i[g]);return s};var o={},t={49:0};a.e=function(e){function n(){c.onerror=c.onload=null,clearTimeout(d);var a=t[e];0!==a&amp;&amp;(a&amp;&amp;a[1](new Error("Loading chunk "+e+" failed.")),t[e]=void 0)}var o=t[e];if(0===o)return new Promise(function(e){e()});if(o)return o[2];var r=new Promise(function(a,n){o=t[e]=[a,n]});o[2]=r;var i=document.getElementsByTagName("head")[0],c=document.createElement("script");c.type="text/javascript",c.charset="utf-8",c.async=!0,c.timeout=12e4,c.crossOrigin="anonymous",a.nc&amp;&amp;c.setAttribute("nonce",a.nc),c.src=a.p+""+({0:"SettingsModules",1:"ProfilePageContainer",2:"LikedByListContainer",3:"FollowListContainer",4:"CreationModules",5:"LocationPageContainer",6:"DiscoverMediaPageContainer",7:"DiscoverEmbedsPageContainer",8:"UserCollectionMediaPageContainer",9:"TagPageContainer",10:"DebugInfoNub",11:"FeedPageContainer",12:"LandingPage",13:"PostPageContainer",14:"LoginAndSignupPage",15:"ResetPasswordPageContainer",16:"UserCollectionsPageContainer",17:"MobileStoriesPage",18:"DesktopStoriesPage",19:"DiscoverPeoplePageContainer",20:"MultiStepSignupPage",21:"ContactHistoryPage",22:"LocationsDirectoryLandingPage",23:"LocationsDirectoryCountryPage",24:"LocationsDirectoryCityPage",25:"EmailConfirmationPage",26:"SuggestedDirectoryLandingPage",27:"ProfilesDirectoryLandingPage",28:"DirectoryPage",29:"HttpErrorPage",30:"ActivityFeedPage",31:"CameraPage",32:"StoryCreationPage",33:"NewUserInterstitial",34:"FBSignupPage",35:"ContactInvitesOptOutPage",36:"Report",37:"Copyright",38:"SupportInfo",39:"Community",40:"GenericSurvey",41:"Challenge",42:"Consumer",43:"EmailSnoozePage",44:"EmailUnsubscribePage",45:"ConfirmFollowDialog",46:"NotificationLandingPage"}[e]||e)+".js/"+{0:"34ea21d19385",1:"88a1a465402e",2:"2342482c75ef",3:"b9dcacbeebc8",4:"c1984d97bc70",5:"288026a6de18",6:"109f6d734863",7:"9e82b7c6ea0b",8:"c9e9bb9efe11",9:"92c450f75f4b",10:"1197ccc46117",11:"3dfd8fa6cfd8",12:"12285bb0b069",13:"27c91aa59fdd",14:"d0a40e755e1e",15:"dd787adc92eb",16:"a4a16427cde3",17:"5800bb273aaa",18:"0703aab3b464",19:"90a8b57ae564",20:"41fa98f6895a",21:"5e044281585c",22:"6858feeb0a66",23:"d1c754295774",24:"7ea767ae76ee",25:"923742376262",26:"d5d5986f3842",27:"1352aea86cc0",28:"bd34aef749f3",29:"762c22ea65a3",30:"d366074da593",31:"ac0ef7598973",32:"fec058817877",33:"e037bebe8036",34:"6c4311554b3b",35:"95a47539d8b2",36:"494c93e40323",37:"5f29e1fddd91",38:"d9582b7fd06a",39:"3c182b8237da",40:"66ae1b2c8d3e",41:"ff6fd0e21ca6",42:"3034c2271934",43:"ba7e7b31317a",44:"a77601a12715",45:"b4a125eea937",46:"30463ebe552b"}[e]+".js";var d=setTimeout(n,12e4);return c.onerror=c.onload=n,i.appendChild(c),r},a.m=e,a.c=o,a.d=function(e,n,o){a.o(e,n)||Object.defineProperty(e,n,{configurable:!1,enumerable:!0,get:o})},a.n=function(e){var n=e&amp;&amp;e.__esModule?function(){return e.default}:function(){return e};return a.d(n,"a",n),n},a.o=function(e,a){return Object.prototype.hasOwnProperty.call(e,a)},a.p="/static/bundles/",a.oe=function(e){throw console.error(e),e}}([]);
+!function(f,b,e,v,n,t,s){if(f.fbq)return;n=f.fbq=function(){n.callMethod?
+n.callMethod.apply(n,arguments):n.queue.push(arguments)};if(!f._fbq)f._fbq=n;
+n.push=n;n.loaded=!0;n.version='2.0';n.queue=[];t=b.createElement(e);t.async=!0;
+t.src=v;s=b.getElementsByTagName(e)[0];s.parentNode.insertBefore(t,s)}(window,
+document,'script','//connect.facebook.net/en_US/fbevents.js');
+fbq('init', '1425767024389221');
+fbq('track', 'PageView');
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+window._sharedData = {"activity_counts":null,"config":{"csrf_token":"WOB16fcTx3YgQM2IrzceKkTwCfzFeMr1","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":547},"followed_by_viewer":false,"follows":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQBpSHsXYn5mziP8mUv7z1JpUTbTwVNpTaqwngX03qrhG0LFkcmgQzDd9XQZ83SZZ7VWJs3UYQbYzjJzg6pQcnpS6J9KCbtoAaee8jYyHwyrkA"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":547},"followed_by_viewer":false,"edge_follow":{"count":299},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frx5-1.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frx5-1.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":209,"page_info":{"has_next_page":true,"end_cursor":"AQBpSHsXYn5mziP8mUv7z1JpUTbTwVNpTaqwngX03qrhG0LFkcmgQzDd9XQZ83SZZ7VWJs3UYQbYzjJzg6pQcnpS6J9KCbtoAaee8jYyHwyrkA"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"834cfd9a":{"g":"","p":{}},"client_gql":{"g":"","p":{}},"b57bc793":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"f6b232bb":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"a47f578c":{"g":"","p":{}},"aysf":{"g":"","p":{}},"04eaabb0":{"g":"","p":{}},"notif":{"g":"","p":{}},"25b356ab":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"e2cffd31":{"g":"test","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout":{"g":"test","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"8a5c80fd":{"g":"","p":{}},"loggedout_upsell":{"g":"","p":{}},"bd6730a0":{"g":"","p":{}},"stories":{"g":"","p":{}},"76a86dfb":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"df78c718":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"su_universe":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"11bbbc09":{"g":"","p":{}},"us_li":{"g":"","p":{}},"d16c94c5":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"af886adf":{"g":"","p":{}},"video":{"g":"","p":{}},"bb21ed8b":{"g":"","p":{}},"appsell":{"g":"","p":{}},"78e2146b":{"g":"","p":{}},"collections":{"g":"","p":{}},"47d6a3b3":{"g":"control_prefill_2_15","p":{"has_msisdn_prefill":"false"}},"msisdn":{"g":"control_prefill_2_15","p":{"has_msisdn_prefill":"false"}},"4ae576c1":{"g":"","p":{}},"save":{"g":"","p":{}},"9dcf4750":{"g":"","p":{}},"stale":{"g":"","p":{}},"edc7f6d2":{"g":"new_reg_with_appsells_01_10","p":{"has_new_landing_appsells":"true","has_new_landing_page":"true"}},"reg":{"g":"new_reg_with_appsells_01_10","p":{"has_new_landing_appsells":"true","has_new_landing_page":"true"}},"47ce4b24":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"reg_vp":{"g":"control_group_1","p":{"hide_value_prop":"false"}},"1df00ebb":{"g":"","p":{}},"prof_pic_upsell":{"g":"","p":{}},"004e9939":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"fbce4ce4":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"b239bf2d":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"6bf718a8":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"8365e413":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"94df4b40":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"4844df36":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"f4651ae9":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"47d2aebf":{"g":"","p":{}},"reporting":{"g":"","p":{}},"cb1ff25c":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"0d3bf783":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"ea55ef64":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"28cc279b":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"3c0bc5c7":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"d5dde92a":{"g":"","p":{}},"embeds":{"g":"","p":{}},"ca7fa6dd":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"608b2c6c":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"2ea1c751":{"g":"","p":{}},"fs":{"g":"","p":{}},"b212f68e":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"d8c67ea6":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"e878cb91":{"g":"","p":{}},"connections":{"g":"","p":{}},"0370381b":{"g":"","p":{}},"notif_banner":{"g":"","p":{}},"3b5f1021":{"g":"","p":{}},"private_lo":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"pPj5YFbXoKZSZI1XCnJ8eQ==","zero_data":{},"rollout_hash":"3156f3856bb5","probably_has_app":false,"show_app_install":true};
+!function(e){function a(n){if(o[n])return o[n].exports;var t=o[n]={i:n,l:!1,exports:{}};return e[n].call(t.exports,t,t.exports,a),t.l=!0,t.exports}var n=window.webpackJsonp;window.webpackJsonp=function(o,r,i){for(var c,d,s,g=0,f=[];g&lt;o.length;g++)d=o[g],t[d]&amp;&amp;f.push(t[d][0]),t[d]=0;for(c in r)Object.prototype.hasOwnProperty.call(r,c)&amp;&amp;(e[c]=r[c]);for(n&amp;&amp;n(o,r,i);f.length;)f.shift()();if(i)for(g=0;g&lt;i.length;g++)s=a(a.s=i[g]);return s};var o={},t={49:0};a.e=function(e){function n(){c.onerror=c.onload=null,clearTimeout(d);var a=t[e];0!==a&amp;&amp;(a&amp;&amp;a[1](new Error("Loading chunk "+e+" failed.")),t[e]=void 0)}var o=t[e];if(0===o)return new Promise(function(e){e()});if(o)return o[2];var r=new Promise(function(a,n){o=t[e]=[a,n]});o[2]=r;var i=document.getElementsByTagName("head")[0],c=document.createElement("script");c.type="text/javascript",c.charset="utf-8",c.async=!0,c.timeout=12e4,c.crossOrigin="anonymous",a.nc&amp;&amp;c.setAttribute("nonce",a.nc),c.src=a.p+""+({0:"SettingsModules",1:"ProfilePageContainer",2:"LikedByListContainer",3:"FollowListContainer",4:"CreationModules",5:"LocationPageContainer",6:"DiscoverMediaPageContainer",7:"DiscoverEmbedsPageContainer",8:"UserCollectionMediaPageContainer",9:"TagPageContainer",10:"DebugInfoNub",11:"FeedPageContainer",12:"LandingPage",13:"PostPageContainer",14:"LoginAndSignupPage",15:"ResetPasswordPageContainer",16:"UserCollectionsPageContainer",17:"MobileStoriesPage",18:"DesktopStoriesPage",19:"DiscoverPeoplePageContainer",20:"MultiStepSignupPage",21:"ContactHistoryPage",22:"LocationsDirectoryLandingPage",23:"LocationsDirectoryCountryPage",24:"LocationsDirectoryCityPage",25:"EmailConfirmationPage",26:"SuggestedDirectoryLandingPage",27:"ProfilesDirectoryLandingPage",28:"DirectoryPage",29:"HttpErrorPage",30:"ActivityFeedPage",31:"CameraPage",32:"StoryCreationPage",33:"NewUserInterstitial",34:"FBSignupPage",35:"ContactInvitesOptOutPage",36:"Report",37:"Copyright",38:"SupportInfo",39:"Community",40:"GenericSurvey",41:"Challenge",42:"Consumer",43:"EmailSnoozePage",44:"EmailUnsubscribePage",45:"ConfirmFollowDialog",46:"NotificationLandingPage"}[e]||e)+".js/"+{0:"34ea21d19385",1:"88a1a465402e",2:"2342482c75ef",3:"b9dcacbeebc8",4:"c1984d97bc70",5:"288026a6de18",6:"109f6d734863",7:"9e82b7c6ea0b",8:"c9e9bb9efe11",9:"92c450f75f4b",10:"1197ccc46117",11:"3dfd8fa6cfd8",12:"12285bb0b069",13:"27c91aa59fdd",14:"d0a40e755e1e",15:"dd787adc92eb",16:"a4a16427cde3",17:"5800bb273aaa",18:"0703aab3b464",19:"90a8b57ae564",20:"41fa98f6895a",21:"5e044281585c",22:"6858feeb0a66",23:"d1c754295774",24:"7ea767ae76ee",25:"923742376262",26:"d5d5986f3842",27:"1352aea86cc0",28:"bd34aef749f3",29:"762c22ea65a3",30:"d366074da593",31:"ac0ef7598973",32:"fec058817877",33:"e037bebe8036",34:"6c4311554b3b",35:"95a47539d8b2",36:"494c93e40323",37:"5f29e1fddd91",38:"d9582b7fd06a",39:"3c182b8237da",40:"66ae1b2c8d3e",41:"ff6fd0e21ca6",42:"3034c2271934",43:"ba7e7b31317a",44:"a77601a12715",45:"b4a125eea937",46:"30463ebe552b"}[e]+".js";var d=setTimeout(n,12e4);return c.onerror=c.onload=n,i.appendChild(c),r},a.m=e,a.c=o,a.d=function(e,n,o){a.o(e,n)||Object.defineProperty(e,n,{configurable:!1,enumerable:!0,get:o})},a.n=function(e){var n=e&amp;&amp;e.__esModule?function(){return e.default}:function(){return e};return a.d(n,"a",n),n},a.o=function(e,a){return Object.prototype.hasOwnProperty.call(e,a)},a.p="/static/bundles/",a.oe=function(e){throw console.error(e),e}}([]);
+!function(f,b,e,v,n,t,s){if(f.fbq)return;n=f.fbq=function(){n.callMethod?
+n.callMethod.apply(n,arguments):n.queue.push(arguments)};if(!f._fbq)f._fbq=n;
+n.push=n;n.loaded=!0;n.version='2.0';n.queue=[];t=b.createElement(e);t.async=!0;
+t.src=v;s=b.getElementsByTagName(e)[0];s.parentNode.insertBefore(t,s)}(window,
+document,'script','//connect.facebook.net/en_US/fbevents.js');
+fbq('init', '1425767024389221');
+fbq('track', 'PageView');
+</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
@@ -1874,6 +1926,50 @@
         <v>60</v>
       </c>
     </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="2" t="n">
+        <v>43157.68808412573</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="2" t="n">
+        <v>43157.68838307775</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="2" t="n">
+        <v>43158.07107937009</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="2" t="n">
+        <v>43158.07469307163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/bodyDataBase.xlsx
+++ b/bodyDataBase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="7620" windowWidth="23340" xWindow="270" yWindow="540"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="23340" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t xml:space="preserve">
 window._sharedData = {"activity_counts":null,"config":{"csrf_token":"vgHMliGwF9FeEcv33pPkR4Stb0twHC6D","viewer":null},"country_code":"DE","language_code":"en","locale":"en_US","entry_data":{"ProfilePage":[{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"followed_by":{"count":541},"followed_by_viewer":false,"follows":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"media":{"nodes":[],"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"}},"saved_media":{"nodes":[],"count":0,"page_info":{"has_next_page":false,"end_cursor":null}},"media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}},"logging_page_id":"profilePage_1700499581","show_suggested_profiles":false,"graphql":{"user":{"biography":"\u003c\u003c\u003c\u003cComputer Engineer\u003e\u003e\u003e\u003e\n     MPAL \u0026 SA\u00dc Graduated\n              Bursa \u2708\ufe0f Berlin\n                    Archer \n______________\ud83c\uddf9\ud83c\uddf7_____________","blocked_by_viewer":false,"country_block":false,"external_url":null,"external_url_linkshimmed":null,"edge_followed_by":{"count":541},"followed_by_viewer":false,"edge_follow":{"count":291},"follows_viewer":false,"full_name":"____________\u003cTK\u003e____________","has_blocked_viewer":false,"has_requested_viewer":false,"id":"1700499581","is_private":true,"is_verified":false,"mutual_followers":null,"profile_pic_url":"https://scontent-frt3-2.cdninstagram.com/vp/ae8cca32468cae276fd70a823898fcc1/5B28BE4A/t51.2885-19/s150x150/26866731_836251886546942_8991696596055883776_n.jpg","profile_pic_url_hd":"https://scontent-frt3-2.cdninstagram.com/vp/e53ac13652c0e170cd623c31c3e73385/5B18ABBA/t51.2885-19/s320x320/26866731_836251886546942_8991696596055883776_n.jpg","requested_by_viewer":false,"username":"tlgkyck","connected_fb_page":null,"edge_owner_to_timeline_media":{"count":208,"page_info":{"has_next_page":true,"end_cursor":"AQA68Sfd3Qz-l1_4JiLtYYrX_fxAyYIGb2kJt7DppWxHaGEkPwcGL8lJUqXQGjRCNpSmUNY55TuAU-HuR6k0EL40xj_W70vo-vOXq4AixRfzVw"},"edges":[]},"edge_saved_media":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]},"edge_media_collections":{"count":0,"page_info":{"has_next_page":false,"end_cursor":null},"edges":[]}}}}]},"gatekeepers":{"ld":true,"seo":true},"qe":{"client_gql":{"g":"","p":{}},"dash_for_vod":{"g":"","p":{}},"bc3l":{"g":"","p":{}},"aysf":{"g":"","p":{}},"notif":{"g":"","p":{}},"follow_button":{"g":"","p":{}},"loggedout":{"g":"launch","p":{"new_cta":"true","remove_upsell_banner":"true","update_nav":"true"}},"loggedout_upsell":{"g":"","p":{}},"stories":{"g":"","p":{}},"exit_story_creation":{"g":"","p":{}},"su_universe":{"g":"test_msisdn_prefill_12_18","p":{"has_msisdn_prefill":"true"}},"us_li":{"g":"","p":{}},"sidecar":{"g":"","p":{}},"video":{"g":"","p":{}},"appsell":{"g":"","p":{}},"collections":{"g":"","p":{}},"msisdn":{"g":"test_prefill_2_15","p":{"has_msisdn_prefill":"true"}},"save":{"g":"","p":{}},"stale":{"g":"","p":{}},"reg":{"g":"control_inline_2_01_16","p":{"has_inline_labels":"false"}},"reg_vp":{"g":"test_group_1","p":{"hide_value_prop":"true"}},"prof_pic_upsell":{"g":"","p":{}},"prof_pic_creation":{"g":"","p":{}},"onetaplogin":{"g":"","p":{}},"onetaplogin_userbased":{"g":"","p":{}},"feed_vp":{"g":"","p":{}},"push_notifications":{"g":"","p":{}},"login_poe":{"g":"","p":{}},"report_haf":{"g":"","p":{}},"report_profile":{"g":"","p":{}},"reporting":{"g":"","p":{}},"media_reporting":{"g":"","p":{}},"bg_sync":{"g":"","p":{}},"disc_ppl":{"g":"","p":{}},"ebdsim_li":{"g":"","p":{}},"ebdsim_lo":{"g":"","p":{}},"embeds":{"g":"","p":{}},"prvcy_tggl":{"g":"","p":{}},"tp_pblshr":{"g":"","p":{}},"fs":{"g":"","p":{}},"404_as_react":{"g":"","p":{}},"acc_recovery":{"g":"","p":{}},"connections":{"g":"","p":{}}},"hostname":"www.instagram.com","display_properties_server_guess":{"pixel_ratio":1.5,"viewport_width":360,"viewport_height":480,"orientation":""},"environment_switcher_visible_server_guess":true,"platform":"web","nonce":"k05odc1FHtEW7COQpskzNQ==","zero_data":{},"is_canary":true,"rollout_hash":"5382794631a5","probably_has_app":false,"show_app_install":true};
@@ -611,7 +611,7 @@
 Conception
 Create and design the plan &amp; idea based on the strategy.
 IMPLEMENTATION
-Planning and decision making in developing the strategic goals and plans of the organization.
+Planning and decision making in developing the strategic goals and plans of the organization._x000D_
 Some References &amp; Clients
 				we optimize, you profit			
  Name (required)
@@ -813,41 +813,50 @@
   </si>
   <si>
     <t xml:space="preserve">
+_x000D_
 								Serdar YILMAZ								
+_x000D_
 								Bizimkisi Bir “Bug” Hikayesi...							
  Serdivan/Sakarya						
  iletisim@srdrylmz.com							
  Serdar Yılmaz  Ana Sayfa						
 Son Yazılar
-							Tüm Yazıları Görün ››
+_x000D_
+							Tüm Yazıları Görün ››_x000D_
 Kas.
 29
 2017
+_x000D_
 									Biyoteknolojiye Hazır mıyız?								
 Büyük bir merakla takip ettiğim biyoteknoloji alanındaki gelişmeleri bu içerikte toparlayıp; biyoteknolojinin ne olduğuna, bu alanda yapılan çalışmalara, yatırımlara ve gelecekte karşılaşabileceğimiz olası senaryolara değinmeye çalışacağım. Devamını Okumak İçin Tıklayınız…
 Haz.
 03
 2017
+_x000D_
 									Yaşam İçin Anlam Taşıyan Üç Şey								
 Bu yazıda, Linux’un yaratıcısı Linus Torvalds’ın bilgisayar dünyasına girişini konu alan “Yalnızca Eğlenmek İçin” isimli kitaptan bir bölüme yer vereceğim. Kitabı yaklaşık 1 – 1.5 yıl önce okumuştum, bugün kitaplığı düzenlerken görünce altını çizdiğim kısımlara tekrar göz gezdirdim ve bir kısmını blog da paylaşmaya karar verdim. Linus Torvalds tarafından kaleme alınan ve onun fikirlerini, düşüncelerini, bakış açısını içeren bu kitabı okumanızı tavsiye ederim.  Devamını Okumak İçin Tıklayınız…
 Mar.
 05
 2017
+_x000D_
 									Yaşamınızdaki Öncelikler Nedir ?								
 Bu yazıda Beyaz Yaka Kitap Kulübünün şubat ayı abonelerine göndermiş olduğu 4 kitaptan biri olan “Konuşmayı Kes Harekete Geç” isimli kitaptan bir alıntıya yer vereceğim. Her ne kadar kitabı sıkıcı bulup, sonlara doğru göz ucuyla okumuş olsam da kitabın ilk sayfasında yer alan öykü ilgimi çekti. Kitabı sıkıcı bulmamın nedeni bu tarz içeriklerin artık bende belli bir duygunluğa ulaşmasından kaynaklanıyor olabilir. Çünkü anlatılmak istenenler bir noktadan sonra sıradanlaşmaya başlayıp, tekrara düşüyor.  Devamını Okumak İçin Tıklayınız…
 Oca.
 19
 2017
+_x000D_
 									C# – Koleksiyonlar								
 Nesne yönelimli programlama ile birlikte sınıf(class) kavramıyla tanıştık ve sıkça kullandığımız metotları tekrar tekrar yazmak yerine, bir sınıf içerisinde, bir defaya mahsus yazarak kod kalabalığının önüne geçmiş olduk. Bu programcı olarak bizlerin, kod karmaşıklığını ve kalabalığını azaltmaya yönelik olarak kendimizce almış olduğumuz bir önlem. Kullanmış olduğumuz platformda, programcılar tarafından sıkça kullanılan veri yapılarını hazır bir şekilde sunarak, benzeri bir kolaylık sağlamakta. Devamını Okumak İçin Tıklayınız…
 Oca.
 12
 2017
+_x000D_
 									Kitap: Satranç – Stefan Zweig								
 Kitaptan bahsetmeye başlamadan önce Türkiye İş Bankası Kültür Yayınları hakkında kısaca bilgi vermek istiyorum. Türkiye İş Bankası Kültür Yayınları dünya klasiklerini dilimize kazandırmak amacıyla kurulan ülkemizdeki en köklü yayın evlerinden biri. Yayın evi hakkında özellikle değinmek istediğim nokta, kitapları bir dizi haline getirmiş olması. Stefan Zweig kaleme aldığı Satranç isimli kitapta, yayın evi tarafından oluşturulan Modern Klasikler Dizisi içerisinde yer almakta.  Devamını Okumak İçin Tıklayınız…
 Eyl.
 24
 2016
+_x000D_
 									Kitap: Dijital Kale – Dan Brown								
 Şuana kadar Dan Brown’un Robert Langdon serisinden Melekler ve Şeytanlar, Da Vinci Şifresi ve Cehennem isimli kitaplarını okuyabildim. Seri içerisinde okumadığım sadece Kayıp Sembol kaldı. Aslında Kayıp Sembole başlangıç yapmıştım ancak vizeler başlayınca uzun bir süre okuyamadım. Bu yüzden kaldığım yerden devam etmek yerine, kitabı bir köşeye koyup farklı bir kitaba başlamayı tercih ettim. Dan Brown’un kaleme aldığı romanları okuyan arkadaşlar bu durumu anlayacaktır. Genellikle kitapları ortalayıncaya kadar olaylar oldukça durgun bir seyir izlemekte. Sanırım kitabı yeniden okumama nedenimde bu; okuduğum kısımları tekrar okumak zorunda kalmam ve bu kısımların durgun ilerlemesi. Devamını Okumak İçin Tıklayınız…
 Ana Sayfa
@@ -862,30 +871,35 @@
 Etkinlikler
 Hakkımda
 Multimedya
+_x000D_
 				© Copyright 2013. All Rights Reserved.			
+_x000D_
 				Serdar YILMAZ Kişisel Web Günlüğü			
-    (function (d, w, c) {
-        (w[c] = w[c] || []).push(function() {
-            try {
-                w.yaCounter35156325 = new Ya.Metrika({
-                    id:35156325,
-                    clickmap:true,
-                    trackLinks:true,
-                    accurateTrackBounce:true,
-                    webvisor:true
-                });
-            } catch(e) { }
-        });
-        var n = d.getElementsByTagName("script")[0],
-            s = d.createElement("script"),
-            f = function () { n.parentNode.insertBefore(s, n); };
-        s.type = "text/javascript";
-        s.async = true;
-        s.src = "https://mc.yandex.ru/metrika/watch.js";
-        if (w.opera == "[object Opera]") {
-            d.addEventListener("DOMContentLoaded", f, false);
-        } else { f(); }
-    })(document, window, "yandex_metrika_callbacks");
+_x000D_
+    (function (d, w, c) {_x000D_
+        (w[c] = w[c] || []).push(function() {_x000D_
+            try {_x000D_
+                w.yaCounter35156325 = new Ya.Metrika({_x000D_
+                    id:35156325,_x000D_
+                    clickmap:true,_x000D_
+                    trackLinks:true,_x000D_
+                    accurateTrackBounce:true,_x000D_
+                    webvisor:true_x000D_
+                });_x000D_
+            } catch(e) { }_x000D_
+        });_x000D_
+_x000D_
+        var n = d.getElementsByTagName("script")[0],_x000D_
+            s = d.createElement("script"),_x000D_
+            f = function () { n.parentNode.insertBefore(s, n); };_x000D_
+        s.type = "text/javascript";_x000D_
+        s.async = true;_x000D_
+        s.src = "https://mc.yandex.ru/metrika/watch.js";_x000D_
+_x000D_
+        if (w.opera == "[object Opera]") {_x000D_
+            d.addEventListener("DOMContentLoaded", f, false);_x000D_
+        } else { f(); }_x000D_
+    })(document, window, "yandex_metrika_callbacks");_x000D_
 /* &lt;![CDATA[ */
 var JQLBSettings = {"fitToScreen":"1","resizeSpeed":"400","displayDownloadLink":"0","navbarOnTop":"0","loopImages":"","resizeCenter":"","marginSize":"0","linkTarget":"","help":"","prevLinkTitle":"previous image","nextLinkTitle":"next image","prevLinkText":"\u00ab Previous","nextLinkText":"Next \u00bb","closeTitle":"close image gallery","image":"Image ","of":" of ","download":"Download","jqlb_overlay_opacity":"80","jqlb_overlay_color":"#000000","jqlb_overlay_close":"1","jqlb_border_width":"10","jqlb_border_color":"#ffffff","jqlb_border_radius":"0","jqlb_image_info_background_transparency":"100","jqlb_image_info_bg_color":"#ffffff","jqlb_image_info_text_color":"#000000","jqlb_image_info_text_fontsize":"10","jqlb_show_text_for_image":"1","jqlb_next_image_title":"next image","jqlb_previous_image_title":"previous image","jqlb_next_button_image":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/next.gif","jqlb_previous_button_image":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/prev.gif","jqlb_maximum_width":"","jqlb_maximum_height":"","jqlb_show_close_button":"1","jqlb_close_image_title":"close image gallery","jqlb_close_image_max_heght":"22","jqlb_image_for_close_lightbox":"http:\/\/www.srdrylmz.com\/wp-content\/plugins\/wp-lightbox-2\/styles\/images\/closelabel.gif","jqlb_keyboard_navigation":"1","jqlb_popup_size_fix":"0"};
 /* ]]&gt; */
@@ -950,23 +964,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -982,17 +995,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1280,25 +1298,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="17.28515625"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="2" t="n">
-        <v>43153.73205559872</v>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>43153.732055598717</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1310,9 +1324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="2" t="n">
-        <v>43153.73209517568</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43153.732095175677</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1321,9 +1335,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="2" t="n">
-        <v>43153.73213480383</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43153.732134803831</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1332,9 +1346,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="2" t="n">
-        <v>43153.73217877095</v>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43153.732178770952</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1343,9 +1357,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="2" t="n">
-        <v>43153.73222240626</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43153.732222406259</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1354,9 +1368,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="2" t="n">
-        <v>43153.73226295756</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43153.732262957557</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1365,9 +1379,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="2" t="n">
-        <v>43153.73230290614</v>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43153.732303240744</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1376,9 +1390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2" t="n">
-        <v>43153.73234563386</v>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43153.732345633864</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1387,9 +1401,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2" t="n">
-        <v>43153.73238996344</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43153.732389963443</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1398,9 +1412,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2" t="n">
-        <v>43153.73242935002</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43153.732429350021</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1409,8 +1423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43153.73269055564</v>
       </c>
       <c r="C11" t="s">
@@ -1420,9 +1434,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="2" t="n">
-        <v>43153.73273378165</v>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43153.732733781653</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1431,9 +1445,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="2" t="n">
-        <v>43153.73278168832</v>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43153.732781688319</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1442,9 +1456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="2" t="n">
-        <v>43153.73282121449</v>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43153.732821214493</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1453,9 +1467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="2" t="n">
-        <v>43153.73286485132</v>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43153.732864851321</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1464,9 +1478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="2" t="n">
-        <v>43153.7329050769</v>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43153.732905076897</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1475,8 +1489,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>43153.73294927954</v>
       </c>
       <c r="C17" t="s">
@@ -1486,8 +1500,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>43153.73299536985</v>
       </c>
       <c r="C18" t="s">
@@ -1497,8 +1511,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43153.73303929565</v>
       </c>
       <c r="C19" t="s">
@@ -1508,9 +1522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="2" t="n">
-        <v>43153.7330826789</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43153.733082678897</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1519,9 +1533,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="2" t="n">
-        <v>43153.73313695499</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43153.733136954987</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1530,9 +1544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="2" t="n">
-        <v>43153.73317771881</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43153.733177718808</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1541,9 +1555,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="2" t="n">
-        <v>43153.73322265672</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43153.733222656723</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1552,8 +1566,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43153.73326244302</v>
       </c>
       <c r="C24" t="s">
@@ -1563,9 +1577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="2" t="n">
-        <v>43153.73330406986</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43153.733304069858</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -1574,9 +1588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="2" t="n">
-        <v>43153.73334507868</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43153.733345078683</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1585,9 +1599,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="2" t="n">
-        <v>43153.73338576609</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43153.733385766092</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1596,9 +1610,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="2" t="n">
-        <v>43153.73342560986</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43153.733425609862</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1607,9 +1621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="2" t="n">
-        <v>43153.73346725345</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43153.733467253449</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1618,9 +1632,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="2" t="n">
-        <v>43153.73350777163</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43153.733507771627</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -1629,9 +1643,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="2" t="n">
-        <v>43153.73355091547</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43153.733550915473</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -1640,9 +1654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="2" t="n">
-        <v>43153.73359099397</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43153.733590993972</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1651,9 +1665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="2" t="n">
-        <v>43153.73363007331</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43153.733630073308</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1662,9 +1676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="2" t="n">
-        <v>43153.73367079144</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43153.733670791436</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1673,9 +1687,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="2" t="n">
-        <v>43153.73371414793</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43153.733714147929</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -1684,9 +1698,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="2" t="n">
-        <v>43153.73376162094</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43153.733761620941</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1695,8 +1709,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>43153.73381609589</v>
       </c>
       <c r="C37" t="s">
@@ -1706,9 +1720,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="2" t="n">
-        <v>43153.73387402061</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43153.733874020611</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1717,9 +1731,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="2" t="n">
-        <v>43153.73392710544</v>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43153.733927105437</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1728,9 +1742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="2" t="n">
-        <v>43153.73398506906</v>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43153.733985069062</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -1739,9 +1753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="2" t="n">
-        <v>43153.73405218878</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43153.734052188782</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -1750,9 +1764,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="2" t="n">
-        <v>43153.73415031016</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43153.734150310163</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -1761,9 +1775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="2" t="n">
-        <v>43153.73521427916</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43153.735214279157</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -1772,9 +1786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="2" t="n">
-        <v>43153.73622738199</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43153.736227381989</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -1783,9 +1797,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="2" t="n">
-        <v>43153.74096566717</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43153.740965667173</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -1794,9 +1808,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="2" t="n">
-        <v>43153.74106641357</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43153.741066413568</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1805,9 +1819,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="2" t="n">
-        <v>43153.74116581838</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43153.741165818377</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1816,9 +1830,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="2" t="n">
-        <v>43153.74126365012</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43153.741263650118</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1827,9 +1841,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="2" t="n">
-        <v>43153.74136297798</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43153.741362977977</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1838,8 +1852,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43153.74147736383</v>
       </c>
       <c r="C50" t="s">
@@ -1849,9 +1863,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="2" t="n">
-        <v>43153.74157117451</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43153.741571174513</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -1860,9 +1874,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="2" t="n">
-        <v>43153.74166621931</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43153.741666219314</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -1871,9 +1885,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="2" t="n">
-        <v>43153.74176371937</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43153.741763719372</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -1882,9 +1896,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="2" t="n">
-        <v>43153.74186660965</v>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43153.741866609649</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -1893,9 +1907,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="2" t="n">
-        <v>43153.7419620491</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43153.741962049098</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -1904,9 +1918,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="2" t="n">
-        <v>43153.74205368825</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43153.742053688249</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -1915,9 +1929,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="2" t="n">
-        <v>43157.5274284332</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43157.527428433197</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -1926,8 +1940,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>43157.68808412573</v>
       </c>
       <c r="C58" t="s">
@@ -1937,9 +1951,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="2" t="n">
-        <v>43157.68838307775</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43157.688383077751</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -1948,9 +1962,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="2" t="n">
-        <v>43158.07107937009</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43158.071079370093</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -1959,9 +1973,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="2" t="n">
-        <v>43158.07469307163</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43158.074693071627</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -1971,6 +1985,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>